--- a/ConfigurationFiles/3-Specific_ions.xlsx
+++ b/ConfigurationFiles/3-Specific_ions.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CDBD874B-2ED7-46D8-B163-4CC3CA2969C2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0E803216-F459-439F-9484-18BC6E6C3605}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -675,20 +675,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="7" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -714,7 +714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>40</v>
       </c>
@@ -740,7 +740,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -766,7 +766,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -792,7 +792,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -818,7 +818,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
@@ -844,7 +844,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
@@ -870,7 +870,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
@@ -896,7 +896,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
@@ -922,7 +922,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>0</v>
       </c>
@@ -948,7 +948,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>0</v>
       </c>
@@ -974,7 +974,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="3"/>
@@ -1035,7 +1035,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>11</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>24</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>18</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>18</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>18</v>
       </c>
@@ -1373,11 +1373,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>77</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>94</v>
       </c>
@@ -1422,14 +1422,14 @@
       <c r="F34" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="6" t="s">
         <v>91</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>94</v>
       </c>
@@ -1448,7 +1448,7 @@
       <c r="F35" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="6" t="s">
         <v>91</v>
       </c>
       <c r="H35" s="6" t="s">

--- a/ConfigurationFiles/3-Specific_ions.xlsx
+++ b/ConfigurationFiles/3-Specific_ions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0E803216-F459-439F-9484-18BC6E6C3605}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BC8D9EED-6E73-4597-8131-5F4CF1F705D2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -271,15 +271,6 @@
     <t>PE Head Group in positive mode</t>
   </si>
   <si>
-    <t>C2H9O4NP-</t>
-  </si>
-  <si>
-    <t>C5H15NO4P-</t>
-  </si>
-  <si>
-    <t>C3H9NO6P-</t>
-  </si>
-  <si>
     <t>PS:186</t>
   </si>
   <si>
@@ -289,9 +280,6 @@
     <t>TG ammonium loss</t>
   </si>
   <si>
-    <t>NH3+H2O</t>
-  </si>
-  <si>
     <t>TG ammonium loss + water</t>
   </si>
   <si>
@@ -305,6 +293,18 @@
   </si>
   <si>
     <t>DG</t>
+  </si>
+  <si>
+    <t>C3H9NO6P+</t>
+  </si>
+  <si>
+    <t>C5H15NO4P+</t>
+  </si>
+  <si>
+    <t>C2H9O4NP+</t>
+  </si>
+  <si>
+    <t>NH5O</t>
   </si>
 </sst>
 </file>
@@ -676,7 +676,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G1:G1048576"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,7 +1011,7 @@
         <v>184.07390000000001</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>75</v>
@@ -1150,7 +1150,7 @@
         <v>142.02690000000001</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>75</v>
@@ -1358,7 +1358,7 @@
         <v>186.01679999999999</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>75</v>
@@ -1367,10 +1367,10 @@
         <v>74</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1400,12 +1400,12 @@
         <v>74</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>4</v>
@@ -1414,7 +1414,7 @@
         <v>35.037114000000003</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>75</v>
@@ -1423,15 +1423,15 @@
         <v>80</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>4</v>
@@ -1440,7 +1440,7 @@
         <v>18.010565</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>75</v>
@@ -1449,10 +1449,10 @@
         <v>74</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigurationFiles/3-Specific_ions.xlsx
+++ b/ConfigurationFiles/3-Specific_ions.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BC8D9EED-6E73-4597-8131-5F4CF1F705D2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -202,15 +201,6 @@
     <t>PE Head Group [M-H]-</t>
   </si>
   <si>
-    <t>Deprotonated doubly dehydrated glycerol phosphocholine</t>
-  </si>
-  <si>
-    <t>-PE Head Group</t>
-  </si>
-  <si>
-    <t>-PE Head Group part</t>
-  </si>
-  <si>
     <t>PG Head Group [M-H]-</t>
   </si>
   <si>
@@ -259,9 +249,6 @@
     <t>PC:184</t>
   </si>
   <si>
-    <t>PC Head Group ion in positive mode</t>
-  </si>
-  <si>
     <t>[M+NH4]+</t>
   </si>
   <si>
@@ -305,12 +292,24 @@
   </si>
   <si>
     <t>NH5O</t>
+  </si>
+  <si>
+    <t>Deprotonated dehydrated glycerol phosphoethanolamine [M-H]-</t>
+  </si>
+  <si>
+    <t>-PE Head Group [M-H]-</t>
+  </si>
+  <si>
+    <t>-PE Head Group part [M-H]-</t>
+  </si>
+  <si>
+    <t>PC Head Group ion in positive mode [M+H]+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -672,23 +671,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="7" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="6" max="7" width="13.54296875" customWidth="1"/>
     <col min="8" max="8" width="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -714,7 +713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>40</v>
       </c>
@@ -740,7 +739,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -766,7 +765,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -792,7 +791,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -818,7 +817,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
@@ -844,7 +843,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
@@ -870,7 +869,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
@@ -887,7 +886,7 @@
         <v>48</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>28</v>
@@ -896,7 +895,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
@@ -913,7 +912,7 @@
         <v>48</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>29</v>
@@ -922,7 +921,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>0</v>
       </c>
@@ -939,7 +938,7 @@
         <v>48</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>30</v>
@@ -948,7 +947,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>0</v>
       </c>
@@ -959,22 +958,22 @@
         <v>74.036779999999993</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>48</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
@@ -991,7 +990,7 @@
         <v>48</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>52</v>
@@ -1000,7 +999,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -1011,22 +1010,22 @@
         <v>184.07390000000001</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="H14" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="3"/>
@@ -1035,7 +1034,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -1061,7 +1060,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -1084,10 +1083,10 @@
         <v>33</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
@@ -1110,10 +1109,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>11</v>
       </c>
@@ -1136,10 +1135,10 @@
         <v>46</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
@@ -1150,22 +1149,22 @@
         <v>142.02690000000001</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1188,10 +1187,10 @@
         <v>34</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
@@ -1214,10 +1213,10 @@
         <v>35</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
@@ -1240,10 +1239,10 @@
         <v>45</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
@@ -1266,10 +1265,10 @@
         <v>36</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>24</v>
       </c>
@@ -1292,10 +1291,10 @@
         <v>37</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>18</v>
       </c>
@@ -1318,10 +1317,10 @@
         <v>38</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>18</v>
       </c>
@@ -1344,10 +1343,10 @@
         <v>39</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>18</v>
       </c>
@@ -1358,28 +1357,28 @@
         <v>186.01679999999999</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C32" s="3"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>4</v>
@@ -1388,24 +1387,24 @@
         <v>17.026548999999999</v>
       </c>
       <c r="D33" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="G33" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>4</v>
@@ -1414,24 +1413,24 @@
         <v>35.037114000000003</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H34" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>4</v>
@@ -1440,19 +1439,19 @@
         <v>18.010565</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigurationFiles/3-Specific_ions.xlsx
+++ b/ConfigurationFiles/3-Specific_ions.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SysMedOs\LipidHunter\ZhixuNi\lipidhunter\ConfigurationFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BA19DA-62CF-4079-B4D0-2E714B490BCD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="4725" yWindow="4245" windowWidth="21600" windowHeight="11505" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,321 +27,305 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="95">
   <si>
-    <t xml:space="preserve">CLASS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXACTMASS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORMULA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHARGE_MODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_CHARGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LABEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REMARKS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H3O4P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[M-H]-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA:-98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-PA Head Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C4H11O4NP-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[M+HCOO]-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC:168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">demethylated PC [M-H]-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C7H15O5NP-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC:224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">demethylated PC dehydrated glycerol ester [M-H]-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C7H17O6NP-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC:242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">demethylated PC glycerol ester [M-H]-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2H4O2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC:-60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-methyl formate (-CH3COOH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C5H14NO4P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC:-183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-PC Head Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[M+OAc]-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3H6O2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC:-74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-CH3COOCH3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C5H15NO4P+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[M+H]+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC:184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC Head Group ion in positive mode [M+H]+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2H7O4NP-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE:140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE Head Group [M-H]-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C5H11O5NP-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE:196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deprotonated dehydrated glycerol phosphoethanolamine [M-H]-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2H8NO4P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE:-141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-PE Head Group [M-H]-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2H5N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE:-43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-PE Head Group part [M-H]-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2H9O4NP+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE:142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE Head Group in positive mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3H8O6P-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG:171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG Head Group [M-H]-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3H6O5P-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG:153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG Head Group [M-H2O-H]-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3H9O6P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG:-172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-PG Head Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6H10O8P -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI:241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI Head Group [M-H]-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6H10O5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI:-162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-inositol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3H7NO6P-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS:184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS Head Group [M-H]-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3H5NO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS:-87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-(serine-H2O)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3H9NO6P+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS:186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS Head Group [M+H]+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NH3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[M+NH4]+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG ammonium loss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NH5O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[M+H-H2O]+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG ammonium loss + water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG water loss</t>
+    <t>CLASS</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>EXACTMASS</t>
+  </si>
+  <si>
+    <t>FORMULA</t>
+  </si>
+  <si>
+    <t>CHARGE_MODE</t>
+  </si>
+  <si>
+    <t>PR_CHARGE</t>
+  </si>
+  <si>
+    <t>LABEL</t>
+  </si>
+  <si>
+    <t>REMARKS</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>H3O4P</t>
+  </si>
+  <si>
+    <t>NEG</t>
+  </si>
+  <si>
+    <t>[M-H]-</t>
+  </si>
+  <si>
+    <t>PA:-98</t>
+  </si>
+  <si>
+    <t>-PA Head Group</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>FRAG</t>
+  </si>
+  <si>
+    <t>C4H11O4NP-</t>
+  </si>
+  <si>
+    <t>[M+HCOO]-</t>
+  </si>
+  <si>
+    <t>PC:168</t>
+  </si>
+  <si>
+    <t>demethylated PC [M-H]-</t>
+  </si>
+  <si>
+    <t>C7H15O5NP-</t>
+  </si>
+  <si>
+    <t>PC:224</t>
+  </si>
+  <si>
+    <t>demethylated PC dehydrated glycerol ester [M-H]-</t>
+  </si>
+  <si>
+    <t>C7H17O6NP-</t>
+  </si>
+  <si>
+    <t>PC:242</t>
+  </si>
+  <si>
+    <t>demethylated PC glycerol ester [M-H]-</t>
+  </si>
+  <si>
+    <t>C2H4O2</t>
+  </si>
+  <si>
+    <t>PC:-60</t>
+  </si>
+  <si>
+    <t>-methyl formate (-CH3COOH)</t>
+  </si>
+  <si>
+    <t>C5H14NO4P</t>
+  </si>
+  <si>
+    <t>PC:-183</t>
+  </si>
+  <si>
+    <t>-PC Head Group</t>
+  </si>
+  <si>
+    <t>[M+OAc]-</t>
+  </si>
+  <si>
+    <t>C3H6O2</t>
+  </si>
+  <si>
+    <t>PC:-74</t>
+  </si>
+  <si>
+    <t>-CH3COOCH3</t>
+  </si>
+  <si>
+    <t>C5H15NO4P+</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>[M+H]+</t>
+  </si>
+  <si>
+    <t>PC:184</t>
+  </si>
+  <si>
+    <t>PC Head Group ion in positive mode [M+H]+</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>C2H7O4NP-</t>
+  </si>
+  <si>
+    <t>PE:140</t>
+  </si>
+  <si>
+    <t>PE Head Group [M-H]-</t>
+  </si>
+  <si>
+    <t>C5H11O5NP-</t>
+  </si>
+  <si>
+    <t>PE:196</t>
+  </si>
+  <si>
+    <t>Deprotonated dehydrated glycerol phosphoethanolamine [M-H]-</t>
+  </si>
+  <si>
+    <t>C2H8NO4P</t>
+  </si>
+  <si>
+    <t>PE:-141</t>
+  </si>
+  <si>
+    <t>-PE Head Group [M-H]-</t>
+  </si>
+  <si>
+    <t>C2H5N</t>
+  </si>
+  <si>
+    <t>PE:-43</t>
+  </si>
+  <si>
+    <t>-PE Head Group part [M-H]-</t>
+  </si>
+  <si>
+    <t>C2H9O4NP+</t>
+  </si>
+  <si>
+    <t>PE:142</t>
+  </si>
+  <si>
+    <t>PE Head Group in positive mode</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>C3H8O6P-</t>
+  </si>
+  <si>
+    <t>PG:171</t>
+  </si>
+  <si>
+    <t>PG Head Group [M-H]-</t>
+  </si>
+  <si>
+    <t>C3H6O5P-</t>
+  </si>
+  <si>
+    <t>PG:153</t>
+  </si>
+  <si>
+    <t>PG Head Group [M-H2O-H]-</t>
+  </si>
+  <si>
+    <t>C3H9O6P</t>
+  </si>
+  <si>
+    <t>PG:-172</t>
+  </si>
+  <si>
+    <t>-PG Head Group</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>C6H10O8P -</t>
+  </si>
+  <si>
+    <t>PI:241</t>
+  </si>
+  <si>
+    <t>PI Head Group [M-H]-</t>
+  </si>
+  <si>
+    <t>C6H10O5</t>
+  </si>
+  <si>
+    <t>PI:-162</t>
+  </si>
+  <si>
+    <t>-inositol</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>C3H7NO6P-</t>
+  </si>
+  <si>
+    <t>PS:184</t>
+  </si>
+  <si>
+    <t>PS Head Group [M-H]-</t>
+  </si>
+  <si>
+    <t>C3H5NO2</t>
+  </si>
+  <si>
+    <t>PS:-87</t>
+  </si>
+  <si>
+    <t>-(serine-H2O)</t>
+  </si>
+  <si>
+    <t>C3H9NO6P+</t>
+  </si>
+  <si>
+    <t>PS:186</t>
+  </si>
+  <si>
+    <t>PS Head Group [M+H]+</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>NH3</t>
+  </si>
+  <si>
+    <t>[M+NH4]+</t>
+  </si>
+  <si>
+    <t>TG ammonium loss</t>
+  </si>
+  <si>
+    <t>DG</t>
+  </si>
+  <si>
+    <t>NH5O</t>
+  </si>
+  <si>
+    <t>[M+H-H2O]+</t>
+  </si>
+  <si>
+    <t>TG ammonium loss + water</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>TG water loss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -348,7 +337,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -356,121 +345,390 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.45"/>
+    <col min="1" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="68" customWidth="1"/>
+    <col min="9" max="1025" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>97.976898</v>
+      <c r="C2" s="1">
+        <v>97.976898000000006</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
@@ -488,15 +746,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>168.0458</v>
+      <c r="C4" s="1">
+        <v>168.04257200000001</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
@@ -514,15 +772,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>224.068787</v>
+      <c r="C5" s="1">
+        <v>224.06878699999999</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
@@ -540,14 +798,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>242.079352</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -566,15 +824,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>60.02113</v>
+      <c r="C7" s="1">
+        <v>60.021129999999999</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>27</v>
@@ -592,14 +850,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>183.066047</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -618,15 +876,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>168.042572</v>
+      <c r="C9" s="1">
+        <v>168.04257200000001</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>17</v>
@@ -644,15 +902,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>224.068787</v>
+      <c r="C10" s="1">
+        <v>224.06878699999999</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>21</v>
@@ -670,14 +928,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>242.079352</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -696,15 +954,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>74.03678</v>
+      <c r="C12" s="1">
+        <v>74.036779999999993</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>34</v>
@@ -722,14 +980,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>183.066047</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -748,17 +1006,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>184.0739</v>
-      </c>
-      <c r="D14" s="0" t="s">
+      <c r="C14" s="1">
+        <v>184.07387199999999</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -774,7 +1032,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
@@ -782,15 +1040,15 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>140.011272</v>
+      <c r="C16" s="1">
+        <v>140.01127199999999</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>43</v>
@@ -808,14 +1066,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="1">
         <v>196.037487</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -834,15 +1092,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>141.019097</v>
+      <c r="C18" s="1">
+        <v>141.01909699999999</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>49</v>
@@ -860,15 +1118,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>43.042199</v>
+      <c r="C19" s="1">
+        <v>43.042198999999997</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>52</v>
@@ -886,15 +1144,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" s="3" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>142.0269</v>
+      <c r="C20" s="1">
+        <v>142.02692200000001</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>55</v>
@@ -912,14 +1170,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="1">
         <v>171.005853</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -938,15 +1196,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>152.995288</v>
+      <c r="C23" s="1">
+        <v>152.99528799999999</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>62</v>
@@ -964,14 +1222,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="1">
         <v>172.013678</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -990,15 +1248,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="1" t="n">
-        <v>241.011333</v>
+      <c r="C26" s="1">
+        <v>241.01133300000001</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>69</v>
@@ -1016,15 +1274,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>162.052824</v>
+      <c r="C27" s="1">
+        <v>162.05282399999999</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>72</v>
@@ -1042,14 +1300,14 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C29" s="1">
         <v>184.001102</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1068,15 +1326,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="1" t="n">
-        <v>87.032029</v>
+      <c r="C30" s="1">
+        <v>87.032028999999994</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>79</v>
@@ -1094,15 +1352,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1" t="n">
-        <v>186.0168</v>
+      <c r="C31" s="1">
+        <v>186.016752</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>82</v>
@@ -1120,19 +1378,19 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" s="3" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>17.026549</v>
+      <c r="C33" s="5">
+        <v>17.026548999999999</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>86</v>
@@ -1150,15 +1408,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="1" t="n">
-        <v>35.037114</v>
+      <c r="C34" s="1">
+        <v>35.037114000000003</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>90</v>
@@ -1176,14 +1434,14 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C35" s="1">
         <v>18.010565</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -1203,12 +1461,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>